--- a/xlsx/白領_intext.xlsx
+++ b/xlsx/白領_intext.xlsx
@@ -29,7 +29,7 @@
     <t>斯德哥尔摩</t>
   </si>
   <si>
-    <t>政策_政策_美國_白領</t>
+    <t>体育运动_体育运动_草根_白領</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A5%E5%BE%85%E5%93%A1</t>
